--- a/PREGUNTAS MVP.xlsx
+++ b/PREGUNTAS MVP.xlsx
@@ -5,22 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordan Dimas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Documents\GitHub\codety-pearson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911073A6-ABC3-4168-89E0-59D96EB796E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E9FCF0-0CCF-4E3D-B5D2-EBC07EFD8978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="-120" windowWidth="28800" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lectura 4" sheetId="1" r:id="rId1"/>
     <sheet name="lectura 3" sheetId="2" r:id="rId2"/>
     <sheet name="lectura 2" sheetId="3" r:id="rId3"/>
     <sheet name="lectura 1" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Respuestas" sheetId="6" r:id="rId5"/>
+    <sheet name="respuestas 2" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja5!$A$1:$A$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Respuestas!$B$1:$J$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'respuestas 2'!$A$1:$A$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="379">
   <si>
     <t>Pregunta</t>
   </si>
@@ -1144,12 +1146,60 @@
 • Escribe una advertencia que le darías a una persona para evitar que se enferme o se lastime. Recuerda las veces que otras personas se preocuparon por tu salud y te dieron algún consejo. 
 </t>
   </si>
+  <si>
+    <t>pregunta</t>
+  </si>
+  <si>
+    <t>respuesta</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>correcta</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>“La regla para todos” consiste en preguntarte “¿qué sucedería si todas laspersonas del mundo hicieran lo mismo que tengo ganas de hacer ahora?”.</t>
+  </si>
+  <si>
+    <t>Las iguanas son amigas de las lindas lagartijas.</t>
+  </si>
+  <si>
+    <t>Muchos regalos da el Sol luz, alegría y calor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajo el Sol viven mil animalitos que de muchas formas son. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya la noche está cayendo y la luna va naciendo. </t>
+  </si>
+  <si>
+    <t>%%</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>|&gt;</t>
+  </si>
+  <si>
+    <t>|&lt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,8 +1221,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1182,6 +1239,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,21 +1263,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1488,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,25 +1579,25 @@
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1566,8 +1640,26 @@
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1618,8 +1710,21 @@
         <f>IF(N3="AD",1,IF(N3="AG",2,IF(N3="AI",3,IF(N3="AT",4,IF(N3="AUT",5,IF(N3="CC",6,IF(N3="CV",7,IF(N3="E",8,IF(N3="IC",9,IF(N3="RG",10,IF(N3="RI",11,IF(N3="RL",12,"n/a"))))))))))))</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V3" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1670,8 +1775,21 @@
         <f t="shared" ref="P4:P12" si="1">IF(N4="AD",1,IF(N4="AG",2,IF(N4="AI",3,IF(N4="AT",4,IF(N4="AUT",5,IF(N4="CC",6,IF(N4="CV",7,IF(N4="E",8,IF(N4="IC",9,IF(N4="RG",10,IF(N4="RI",11,IF(N4="RL",12,"n/a"))))))))))))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V4" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1722,8 +1840,23 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V5" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1774,8 +1907,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V6" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1826,8 +1972,23 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V7" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1878,8 +2039,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V8" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1930,8 +2104,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V9" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1982,8 +2169,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V10" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2034,8 +2234,21 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V11" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -2064,6 +2277,428 @@
       <c r="P12" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V12" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V13" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V14" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V15" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V16" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V17" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V18" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V19" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V20" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V21" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V22" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="8">
+        <v>1</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V23" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V24" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V25" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V26" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V27" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V28" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V29" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V30" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" s="8">
+        <v>1</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="V31" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V32" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V33" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V34" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V35" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V36" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V37" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V38" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V39" s="1">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2077,37 +2712,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2150,8 +2787,23 @@
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2185,7 +2837,7 @@
       <c r="K3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -2202,8 +2854,20 @@
         <f>IF(N3="AD",1,IF(N3="AG",2,IF(N3="AI",3,IF(N3="AT",4,IF(N3="AUT",5,IF(N3="CC",6,IF(N3="CV",7,IF(N3="E",8,IF(N3="IC",9,IF(N3="RG",10,IF(N3="RI",11,IF(N3="RL",12,"n/a"))))))))))))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W3" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2237,7 +2901,7 @@
       <c r="K4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2254,8 +2918,23 @@
         <f t="shared" ref="P4:P12" si="1">IF(N4="AD",1,IF(N4="AG",2,IF(N4="AI",3,IF(N4="AT",4,IF(N4="AUT",5,IF(N4="CC",6,IF(N4="CV",7,IF(N4="E",8,IF(N4="IC",9,IF(N4="RG",10,IF(N4="RI",11,IF(N4="RL",12,"n/a"))))))))))))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W4" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2289,7 +2968,7 @@
       <c r="K5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -2306,8 +2985,20 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W5" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +3032,7 @@
       <c r="K6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2358,8 +3049,23 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2410,8 +3116,20 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W7" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2462,8 +3180,20 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W8" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2514,8 +3244,20 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W9" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2566,8 +3308,20 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W10" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2618,9 +3372,24 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="S11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W11" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="1">
@@ -2645,6 +3414,423 @@
       <c r="P12" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W13" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W14" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W15" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W18" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W19" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W20" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W21" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W31" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W32" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W33" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W34" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W35" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W36" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W37" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W38" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="W39" s="1">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2658,10 +3844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,25 +3856,25 @@
     <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2731,8 +3917,23 @@
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2783,8 +3984,23 @@
         <f>IF(N3="AD",1,IF(N3="AG",2,IF(N3="AI",3,IF(N3="AT",4,IF(N3="AUT",5,IF(N3="CC",6,IF(N3="CV",7,IF(N3="E",8,IF(N3="IC",9,IF(N3="RG",10,IF(N3="RI",11,IF(N3="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V3" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2835,8 +4051,23 @@
         <f t="shared" ref="P4:P12" si="1">IF(N4="AD",1,IF(N4="AG",2,IF(N4="AI",3,IF(N4="AT",4,IF(N4="AUT",5,IF(N4="CC",6,IF(N4="CV",7,IF(N4="E",8,IF(N4="IC",9,IF(N4="RG",10,IF(N4="RI",11,IF(N4="RL",12,"n/a"))))))))))))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2887,8 +4118,23 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2939,8 +4185,23 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2991,8 +4252,23 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3043,8 +4319,23 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3095,8 +4386,23 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V9" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3147,8 +4453,23 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V10" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3199,8 +4520,23 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V11" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -3230,9 +4566,481 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
+      <c r="R12" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V22" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="R23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V24" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V26" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V27" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V28" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V29" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V30" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V31" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="R32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V32" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V33" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V34" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V35" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V36" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V37" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V38" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V39" s="1">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3245,17 +5053,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="101.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
@@ -3267,28 +5075,30 @@
     <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="20.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="18" width="11.42578125" style="1"/>
+    <col min="19" max="19" width="53.5703125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3332,7 +5142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3366,7 +5176,7 @@
       <c r="K3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -3384,7 +5194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3418,7 +5228,7 @@
       <c r="K4" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -3428,15 +5238,15 @@
         <v>11</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O12" si="0">IF(M4="AD",1,IF(M4="AG",2,IF(M4="AI",3,IF(M4="AT",4,IF(M4="AUT",5,IF(M4="CC",6,IF(M4="CV",7,IF(M4="E",8,IF(M4="IC",9,IF(M4="RG",10,IF(M4="RI",11,IF(M4="RL",12,"n/a"))))))))))))</f>
+        <f>IF(M4="AD",1,IF(M4="AG",2,IF(M4="AI",3,IF(M4="AT",4,IF(M4="AUT",5,IF(M4="CC",6,IF(M4="CV",7,IF(M4="E",8,IF(M4="IC",9,IF(M4="RG",10,IF(M4="RI",11,IF(M4="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P12" si="1">IF(N4="AD",1,IF(N4="AG",2,IF(N4="AI",3,IF(N4="AT",4,IF(N4="AUT",5,IF(N4="CC",6,IF(N4="CV",7,IF(N4="E",8,IF(N4="IC",9,IF(N4="RG",10,IF(N4="RI",11,IF(N4="RL",12,"n/a"))))))))))))</f>
+        <f>IF(N4="AD",1,IF(N4="AG",2,IF(N4="AI",3,IF(N4="AT",4,IF(N4="AUT",5,IF(N4="CC",6,IF(N4="CV",7,IF(N4="E",8,IF(N4="IC",9,IF(N4="RG",10,IF(N4="RI",11,IF(N4="RL",12,"n/a"))))))))))))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3470,7 +5280,7 @@
       <c r="K5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -3480,15 +5290,15 @@
         <v>41</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(M5="AD",1,IF(M5="AG",2,IF(M5="AI",3,IF(M5="AT",4,IF(M5="AUT",5,IF(M5="CC",6,IF(M5="CV",7,IF(M5="E",8,IF(M5="IC",9,IF(M5="RG",10,IF(M5="RI",11,IF(M5="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(N5="AD",1,IF(N5="AG",2,IF(N5="AI",3,IF(N5="AT",4,IF(N5="AUT",5,IF(N5="CC",6,IF(N5="CV",7,IF(N5="E",8,IF(N5="IC",9,IF(N5="RG",10,IF(N5="RI",11,IF(N5="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3522,7 +5332,7 @@
       <c r="K6" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -3532,15 +5342,15 @@
         <v>41</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(M6="AD",1,IF(M6="AG",2,IF(M6="AI",3,IF(M6="AT",4,IF(M6="AUT",5,IF(M6="CC",6,IF(M6="CV",7,IF(M6="E",8,IF(M6="IC",9,IF(M6="RG",10,IF(M6="RI",11,IF(M6="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(N6="AD",1,IF(N6="AG",2,IF(N6="AI",3,IF(N6="AT",4,IF(N6="AUT",5,IF(N6="CC",6,IF(N6="CV",7,IF(N6="E",8,IF(N6="IC",9,IF(N6="RG",10,IF(N6="RI",11,IF(N6="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3574,7 +5384,7 @@
       <c r="K7" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -3584,15 +5394,15 @@
         <v>41</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(M7="AD",1,IF(M7="AG",2,IF(M7="AI",3,IF(M7="AT",4,IF(M7="AUT",5,IF(M7="CC",6,IF(M7="CV",7,IF(M7="E",8,IF(M7="IC",9,IF(M7="RG",10,IF(M7="RI",11,IF(M7="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(N7="AD",1,IF(N7="AG",2,IF(N7="AI",3,IF(N7="AT",4,IF(N7="AUT",5,IF(N7="CC",6,IF(N7="CV",7,IF(N7="E",8,IF(N7="IC",9,IF(N7="RG",10,IF(N7="RI",11,IF(N7="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3626,7 +5436,7 @@
       <c r="K8" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -3636,16 +5446,15 @@
         <v>22</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(M8="AD",1,IF(M8="AG",2,IF(M8="AI",3,IF(M8="AT",4,IF(M8="AUT",5,IF(M8="CC",6,IF(M8="CV",7,IF(M8="E",8,IF(M8="IC",9,IF(M8="RG",10,IF(M8="RI",11,IF(M8="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(N8="AD",1,IF(N8="AG",2,IF(N8="AI",3,IF(N8="AT",4,IF(N8="AUT",5,IF(N8="CC",6,IF(N8="CV",7,IF(N8="E",8,IF(N8="IC",9,IF(N8="RG",10,IF(N8="RI",11,IF(N8="RL",12,"n/a"))))))))))))</f>
         <v>9</v>
       </c>
-      <c r="R8"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3689,16 +5498,15 @@
         <v>22</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(M9="AD",1,IF(M9="AG",2,IF(M9="AI",3,IF(M9="AT",4,IF(M9="AUT",5,IF(M9="CC",6,IF(M9="CV",7,IF(M9="E",8,IF(M9="IC",9,IF(M9="RG",10,IF(M9="RI",11,IF(M9="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(N9="AD",1,IF(N9="AG",2,IF(N9="AI",3,IF(N9="AT",4,IF(N9="AUT",5,IF(N9="CC",6,IF(N9="CV",7,IF(N9="E",8,IF(N9="IC",9,IF(N9="RG",10,IF(N9="RI",11,IF(N9="RL",12,"n/a"))))))))))))</f>
         <v>9</v>
       </c>
-      <c r="R9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3742,16 +5550,15 @@
         <v>230</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(M10="AD",1,IF(M10="AG",2,IF(M10="AI",3,IF(M10="AT",4,IF(M10="AUT",5,IF(M10="CC",6,IF(M10="CV",7,IF(M10="E",8,IF(M10="IC",9,IF(M10="RG",10,IF(M10="RI",11,IF(M10="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(N10="AD",1,IF(N10="AG",2,IF(N10="AI",3,IF(N10="AT",4,IF(N10="AUT",5,IF(N10="CC",6,IF(N10="CV",7,IF(N10="E",8,IF(N10="IC",9,IF(N10="RG",10,IF(N10="RI",11,IF(N10="RL",12,"n/a"))))))))))))</f>
         <v>7</v>
       </c>
-      <c r="R10"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3795,16 +5602,15 @@
         <v>162</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(M11="AD",1,IF(M11="AG",2,IF(M11="AI",3,IF(M11="AT",4,IF(M11="AUT",5,IF(M11="CC",6,IF(M11="CV",7,IF(M11="E",8,IF(M11="IC",9,IF(M11="RG",10,IF(M11="RI",11,IF(M11="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(N11="AD",1,IF(N11="AG",2,IF(N11="AI",3,IF(N11="AT",4,IF(N11="AUT",5,IF(N11="CC",6,IF(N11="CV",7,IF(N11="E",8,IF(N11="IC",9,IF(N11="RG",10,IF(N11="RI",11,IF(N11="RL",12,"n/a"))))))))))))</f>
         <v>2</v>
       </c>
-      <c r="R11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -3827,46 +5633,19 @@
         <v>318</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(M12="AD",1,IF(M12="AG",2,IF(M12="AI",3,IF(M12="AT",4,IF(M12="AUT",5,IF(M12="CC",6,IF(M12="CV",7,IF(M12="E",8,IF(M12="IC",9,IF(M12="RG",10,IF(M12="RI",11,IF(M12="RL",12,"n/a"))))))))))))</f>
         <v>11</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(N12="AD",1,IF(N12="AG",2,IF(N12="AI",3,IF(N12="AT",4,IF(N12="AUT",5,IF(N12="CC",6,IF(N12="CV",7,IF(N12="E",8,IF(N12="IC",9,IF(N12="RG",10,IF(N12="RI",11,IF(N12="RL",12,"n/a"))))))))))))</f>
         <v>5</v>
       </c>
-      <c r="R12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R13"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R14"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L15" s="3"/>
-      <c r="R15"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R16"/>
-    </row>
-    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R17"/>
-    </row>
-    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R18"/>
-    </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="3"/>
-      <c r="R19"/>
-    </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R20"/>
-    </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R21"/>
-    </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3878,6 +5657,5254 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F357D6-1885-4539-89F3-FC8CC457411E}">
+  <dimension ref="A1:L149"/>
+  <sheetViews>
+    <sheetView topLeftCell="E97" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K149"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="133.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="188.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" t="s">
+        <v>378</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J11" s="8">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J13" s="8">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" t="s">
+        <v>378</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" t="s">
+        <v>378</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" t="s">
+        <v>378</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B18" s="8">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" t="s">
+        <v>378</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="8">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" t="s">
+        <v>369</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J20" s="8">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="8">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" t="s">
+        <v>369</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" t="s">
+        <v>378</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" t="s">
+        <v>378</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J22" s="1">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" t="s">
+        <v>369</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" t="s">
+        <v>378</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" t="s">
+        <v>369</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" t="s">
+        <v>378</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" t="s">
+        <v>369</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G25" t="s">
+        <v>378</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" s="8">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" t="s">
+        <v>369</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" t="s">
+        <v>378</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J26" s="8">
+        <v>7</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="8">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G27" t="s">
+        <v>378</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J27" s="8">
+        <v>7</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28" s="8">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" t="s">
+        <v>378</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J28" s="8">
+        <v>7</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" s="8">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" t="s">
+        <v>378</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J29" s="8">
+        <v>7</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" t="s">
+        <v>369</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G30" t="s">
+        <v>378</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J30" s="1">
+        <v>8</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E31" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" t="s">
+        <v>378</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32" t="s">
+        <v>369</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G32" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J32" s="1">
+        <v>8</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>377</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33" t="s">
+        <v>369</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" t="s">
+        <v>378</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J33" s="1">
+        <v>8</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" s="8">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E34" t="s">
+        <v>369</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>378</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J34" s="8">
+        <v>9</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B35" s="8">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>377</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E35" t="s">
+        <v>369</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>378</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J35" s="8">
+        <v>9</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" s="8">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>377</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" t="s">
+        <v>369</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" t="s">
+        <v>378</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J36" s="8">
+        <v>9</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" s="8">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>377</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>378</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J37" s="8">
+        <v>9</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>377</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" t="s">
+        <v>369</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>378</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" s="8">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>377</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J39" s="8">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>376</v>
+      </c>
+      <c r="B40" s="8">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>369</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" t="s">
+        <v>378</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J40" s="8">
+        <v>11</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41" s="8">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" t="s">
+        <v>369</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J41" s="8">
+        <v>11</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>376</v>
+      </c>
+      <c r="B42" s="8">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" t="s">
+        <v>369</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" t="s">
+        <v>378</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J42" s="8">
+        <v>11</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>376</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>377</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>369</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" t="s">
+        <v>378</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" s="1">
+        <v>12</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>377</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" t="s">
+        <v>369</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G44" t="s">
+        <v>378</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J44" s="1">
+        <v>12</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>377</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" t="s">
+        <v>369</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" t="s">
+        <v>378</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J45" s="1">
+        <v>12</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" t="s">
+        <v>369</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" t="s">
+        <v>378</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" s="1">
+        <v>12</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" s="8">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>377</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" t="s">
+        <v>378</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J47" s="8">
+        <v>13</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" s="8">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>377</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" t="s">
+        <v>369</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" t="s">
+        <v>378</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J48" s="8">
+        <v>13</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" s="8">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>377</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" t="s">
+        <v>369</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" t="s">
+        <v>378</v>
+      </c>
+      <c r="H49" s="8">
+        <v>1</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J49" s="8">
+        <v>13</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" s="8">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>377</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" t="s">
+        <v>369</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" t="s">
+        <v>378</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J50" s="8">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>376</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" t="s">
+        <v>369</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" t="s">
+        <v>378</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J51" s="1">
+        <v>14</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>376</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>377</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>369</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" t="s">
+        <v>378</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J52" s="1">
+        <v>14</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>377</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" t="s">
+        <v>378</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J53" s="1">
+        <v>14</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>376</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>377</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" t="s">
+        <v>369</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" t="s">
+        <v>378</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J54" s="1">
+        <v>14</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" s="8">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>377</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" t="s">
+        <v>369</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" t="s">
+        <v>378</v>
+      </c>
+      <c r="H55" s="8">
+        <v>1</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J55" s="8">
+        <v>15</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>376</v>
+      </c>
+      <c r="B56" s="8">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" t="s">
+        <v>369</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" t="s">
+        <v>378</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J56" s="8">
+        <v>15</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>376</v>
+      </c>
+      <c r="B57" s="8">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" t="s">
+        <v>369</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G57" t="s">
+        <v>378</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J57" s="8">
+        <v>15</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" s="8">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>369</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" t="s">
+        <v>378</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J58" s="8">
+        <v>15</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>376</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E59" t="s">
+        <v>369</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" t="s">
+        <v>378</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J59" s="1">
+        <v>16</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>376</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>377</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" t="s">
+        <v>369</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G60" t="s">
+        <v>378</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J60" s="1">
+        <v>16</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>377</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" t="s">
+        <v>369</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G61" t="s">
+        <v>378</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J61" s="1">
+        <v>16</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>376</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>377</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" t="s">
+        <v>369</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G62" t="s">
+        <v>378</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J62" s="1">
+        <v>16</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B63" s="8">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>377</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" t="s">
+        <v>369</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G63" t="s">
+        <v>378</v>
+      </c>
+      <c r="H63" s="8">
+        <v>1</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J63" s="8">
+        <v>17</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>376</v>
+      </c>
+      <c r="B64" s="8">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>377</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" t="s">
+        <v>369</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G64" t="s">
+        <v>378</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J64" s="8">
+        <v>17</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" s="8">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>377</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E65" t="s">
+        <v>369</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G65" t="s">
+        <v>378</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J65" s="8">
+        <v>17</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" s="8">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>377</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" t="s">
+        <v>369</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G66" t="s">
+        <v>378</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J66" s="8">
+        <v>17</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>377</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" t="s">
+        <v>369</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G67" t="s">
+        <v>378</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J67" s="1">
+        <v>18</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>376</v>
+      </c>
+      <c r="B68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68" t="s">
+        <v>369</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G68" t="s">
+        <v>378</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J68" s="1">
+        <v>18</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>377</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" t="s">
+        <v>369</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G69" t="s">
+        <v>378</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J69" s="1">
+        <v>18</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>376</v>
+      </c>
+      <c r="B70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>377</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" t="s">
+        <v>369</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G70" t="s">
+        <v>378</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J70" s="1">
+        <v>18</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71" s="8">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>377</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" t="s">
+        <v>369</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" t="s">
+        <v>378</v>
+      </c>
+      <c r="H71" s="8">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J71" s="8">
+        <v>19</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="8">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E72" t="s">
+        <v>369</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" t="s">
+        <v>378</v>
+      </c>
+      <c r="H72" s="8">
+        <v>1</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J72" s="8">
+        <v>19</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>376</v>
+      </c>
+      <c r="B73" s="8">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>377</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" t="s">
+        <v>369</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G73" t="s">
+        <v>378</v>
+      </c>
+      <c r="H73" s="8">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J73" s="8">
+        <v>19</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>376</v>
+      </c>
+      <c r="B74" s="8">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>377</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74" t="s">
+        <v>369</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G74" t="s">
+        <v>378</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J74" s="8">
+        <v>19</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>377</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" t="s">
+        <v>369</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G75" t="s">
+        <v>378</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J75" s="1">
+        <v>20</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" s="8">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>377</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>369</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>378</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J76" s="8">
+        <v>21</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>376</v>
+      </c>
+      <c r="B77" s="8">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>377</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>369</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>378</v>
+      </c>
+      <c r="H77" s="8">
+        <v>1</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J77" s="8">
+        <v>21</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>376</v>
+      </c>
+      <c r="B78" s="8">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" t="s">
+        <v>369</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78" t="s">
+        <v>378</v>
+      </c>
+      <c r="H78" s="8">
+        <v>0</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J78" s="8">
+        <v>21</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>376</v>
+      </c>
+      <c r="B79" s="8">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>377</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" t="s">
+        <v>369</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" t="s">
+        <v>378</v>
+      </c>
+      <c r="H79" s="8">
+        <v>0</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J79" s="8">
+        <v>21</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>376</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>377</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" t="s">
+        <v>369</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G80" t="s">
+        <v>378</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J80" s="1">
+        <v>22</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>376</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>377</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" t="s">
+        <v>369</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" t="s">
+        <v>378</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J81" s="1">
+        <v>22</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>376</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>377</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" t="s">
+        <v>369</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" t="s">
+        <v>378</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J82" s="1">
+        <v>22</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>377</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" t="s">
+        <v>369</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>378</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J83" s="1">
+        <v>22</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>376</v>
+      </c>
+      <c r="B84" s="8">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>377</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" t="s">
+        <v>369</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" t="s">
+        <v>378</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J84" s="8">
+        <v>23</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>376</v>
+      </c>
+      <c r="B85" s="8">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>377</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" t="s">
+        <v>369</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" t="s">
+        <v>378</v>
+      </c>
+      <c r="H85" s="8">
+        <v>1</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J85" s="8">
+        <v>23</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>376</v>
+      </c>
+      <c r="B86" s="8">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>377</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" t="s">
+        <v>369</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" t="s">
+        <v>378</v>
+      </c>
+      <c r="H86" s="8">
+        <v>0</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J86" s="8">
+        <v>23</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>376</v>
+      </c>
+      <c r="B87" s="8">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>377</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" t="s">
+        <v>369</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G87" t="s">
+        <v>378</v>
+      </c>
+      <c r="H87" s="8">
+        <v>0</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J87" s="8">
+        <v>23</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>377</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" t="s">
+        <v>369</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G88" t="s">
+        <v>378</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J88" s="1">
+        <v>24</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>376</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>377</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" t="s">
+        <v>369</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G89" t="s">
+        <v>378</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J89" s="1">
+        <v>24</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>376</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>377</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90" t="s">
+        <v>378</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J90" s="1">
+        <v>24</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>376</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" t="s">
+        <v>369</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91" t="s">
+        <v>378</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J91" s="1">
+        <v>24</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>376</v>
+      </c>
+      <c r="B92" s="8">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>377</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" t="s">
+        <v>369</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G92" t="s">
+        <v>378</v>
+      </c>
+      <c r="H92" s="8">
+        <v>0</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J92" s="8">
+        <v>25</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" s="8">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" t="s">
+        <v>369</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G93" t="s">
+        <v>378</v>
+      </c>
+      <c r="H93" s="8">
+        <v>0</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J93" s="8">
+        <v>25</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>376</v>
+      </c>
+      <c r="B94" s="8">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" t="s">
+        <v>369</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G94" t="s">
+        <v>378</v>
+      </c>
+      <c r="H94" s="8">
+        <v>1</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J94" s="8">
+        <v>25</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>376</v>
+      </c>
+      <c r="B95" s="8">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" t="s">
+        <v>369</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G95" t="s">
+        <v>378</v>
+      </c>
+      <c r="H95" s="8">
+        <v>0</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J95" s="8">
+        <v>25</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>376</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>377</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" t="s">
+        <v>369</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" t="s">
+        <v>378</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J96" s="1">
+        <v>26</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>376</v>
+      </c>
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>377</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" t="s">
+        <v>369</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97" t="s">
+        <v>378</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J97" s="1">
+        <v>26</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>376</v>
+      </c>
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>377</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" t="s">
+        <v>369</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G98" t="s">
+        <v>378</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J98" s="1">
+        <v>26</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>376</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>377</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" t="s">
+        <v>369</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G99" t="s">
+        <v>378</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J99" s="1">
+        <v>26</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>376</v>
+      </c>
+      <c r="B100" s="8">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>377</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" t="s">
+        <v>369</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G100" t="s">
+        <v>378</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J100" s="8">
+        <v>27</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>376</v>
+      </c>
+      <c r="B101" s="8">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>377</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" t="s">
+        <v>369</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G101" t="s">
+        <v>378</v>
+      </c>
+      <c r="H101" s="8">
+        <v>0</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J101" s="8">
+        <v>27</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>376</v>
+      </c>
+      <c r="B102" s="8">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>377</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E102" t="s">
+        <v>369</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G102" t="s">
+        <v>378</v>
+      </c>
+      <c r="H102" s="8">
+        <v>1</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J102" s="8">
+        <v>27</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>376</v>
+      </c>
+      <c r="B103" s="8">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>377</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" t="s">
+        <v>369</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G103" t="s">
+        <v>378</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J103" s="8">
+        <v>27</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>376</v>
+      </c>
+      <c r="B104" s="1">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>377</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" t="s">
+        <v>369</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G104" t="s">
+        <v>378</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J104" s="1">
+        <v>28</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>376</v>
+      </c>
+      <c r="B105" s="1">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>377</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E105" t="s">
+        <v>369</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G105" t="s">
+        <v>378</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J105" s="1">
+        <v>28</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>376</v>
+      </c>
+      <c r="B106" s="1">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>377</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" t="s">
+        <v>369</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G106" t="s">
+        <v>378</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J106" s="1">
+        <v>28</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" s="1">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>377</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" t="s">
+        <v>369</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G107" t="s">
+        <v>378</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J107" s="1">
+        <v>28</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>376</v>
+      </c>
+      <c r="B108" s="8">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>377</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" t="s">
+        <v>369</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G108" t="s">
+        <v>378</v>
+      </c>
+      <c r="H108" s="8">
+        <v>1</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J108" s="8">
+        <v>29</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>376</v>
+      </c>
+      <c r="B109" s="8">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>377</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" t="s">
+        <v>369</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G109" t="s">
+        <v>378</v>
+      </c>
+      <c r="H109" s="8">
+        <v>0</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J109" s="8">
+        <v>29</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>376</v>
+      </c>
+      <c r="B110" s="8">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>377</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" t="s">
+        <v>369</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G110" t="s">
+        <v>378</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J110" s="8">
+        <v>29</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>376</v>
+      </c>
+      <c r="B111" s="8">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>377</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" t="s">
+        <v>369</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G111" t="s">
+        <v>378</v>
+      </c>
+      <c r="H111" s="8">
+        <v>0</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J111" s="8">
+        <v>29</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>376</v>
+      </c>
+      <c r="B112" s="1">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>377</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E112" t="s">
+        <v>369</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G112" t="s">
+        <v>378</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J112" s="1">
+        <v>30</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>376</v>
+      </c>
+      <c r="B113" s="8">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>377</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>369</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>378</v>
+      </c>
+      <c r="H113" s="8">
+        <v>0</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J113" s="8">
+        <v>31</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>376</v>
+      </c>
+      <c r="B114" s="8">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>377</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" t="s">
+        <v>369</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>378</v>
+      </c>
+      <c r="H114" s="8">
+        <v>1</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J114" s="8">
+        <v>31</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>376</v>
+      </c>
+      <c r="B115" s="8">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>377</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" t="s">
+        <v>369</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>378</v>
+      </c>
+      <c r="H115" s="8">
+        <v>0</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J115" s="8">
+        <v>31</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>376</v>
+      </c>
+      <c r="B116" s="8">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>377</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" t="s">
+        <v>369</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>378</v>
+      </c>
+      <c r="H116" s="8">
+        <v>1</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J116" s="8">
+        <v>31</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>376</v>
+      </c>
+      <c r="B117" s="10">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>377</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>369</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>378</v>
+      </c>
+      <c r="H117" s="10">
+        <v>0</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J117" s="10">
+        <v>32</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>376</v>
+      </c>
+      <c r="B118" s="10">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>377</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" t="s">
+        <v>369</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s">
+        <v>378</v>
+      </c>
+      <c r="H118" s="10">
+        <v>0</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J118" s="10">
+        <v>32</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>376</v>
+      </c>
+      <c r="B119" s="10">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>377</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s">
+        <v>369</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" t="s">
+        <v>378</v>
+      </c>
+      <c r="H119" s="10">
+        <v>1</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J119" s="10">
+        <v>32</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>376</v>
+      </c>
+      <c r="B120" s="10">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>377</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" t="s">
+        <v>369</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s">
+        <v>378</v>
+      </c>
+      <c r="H120" s="10">
+        <v>0</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J120" s="10">
+        <v>32</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>376</v>
+      </c>
+      <c r="B121" s="8">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>377</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="s">
+        <v>369</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" t="s">
+        <v>378</v>
+      </c>
+      <c r="H121" s="8">
+        <v>1</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J121" s="8">
+        <v>33</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>376</v>
+      </c>
+      <c r="B122" s="8">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>377</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" t="s">
+        <v>369</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" t="s">
+        <v>378</v>
+      </c>
+      <c r="H122" s="8">
+        <v>0</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J122" s="8">
+        <v>33</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>376</v>
+      </c>
+      <c r="B123" s="8">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>377</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" t="s">
+        <v>369</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s">
+        <v>378</v>
+      </c>
+      <c r="H123" s="8">
+        <v>0</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J123" s="8">
+        <v>33</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>376</v>
+      </c>
+      <c r="B124" s="8">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>377</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" t="s">
+        <v>369</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" t="s">
+        <v>378</v>
+      </c>
+      <c r="H124" s="8">
+        <v>0</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J124" s="8">
+        <v>33</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>376</v>
+      </c>
+      <c r="B125" s="10">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>377</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" t="s">
+        <v>369</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G125" t="s">
+        <v>378</v>
+      </c>
+      <c r="H125" s="10">
+        <v>0</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J125" s="10">
+        <v>34</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>376</v>
+      </c>
+      <c r="B126" s="10">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>377</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" t="s">
+        <v>369</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G126" t="s">
+        <v>378</v>
+      </c>
+      <c r="H126" s="10">
+        <v>0</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J126" s="10">
+        <v>34</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127" s="10">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" t="s">
+        <v>369</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G127" t="s">
+        <v>378</v>
+      </c>
+      <c r="H127" s="10">
+        <v>0</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J127" s="10">
+        <v>34</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>376</v>
+      </c>
+      <c r="B128" s="10">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>377</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" t="s">
+        <v>369</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G128" t="s">
+        <v>378</v>
+      </c>
+      <c r="H128" s="10">
+        <v>1</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J128" s="10">
+        <v>34</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>376</v>
+      </c>
+      <c r="B129" s="8">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>377</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" t="s">
+        <v>369</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G129" t="s">
+        <v>378</v>
+      </c>
+      <c r="H129" s="8">
+        <v>1</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J129" s="8">
+        <v>35</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>376</v>
+      </c>
+      <c r="B130" s="8">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>377</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E130" t="s">
+        <v>369</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" t="s">
+        <v>378</v>
+      </c>
+      <c r="H130" s="8">
+        <v>0</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J130" s="8">
+        <v>35</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>376</v>
+      </c>
+      <c r="B131" s="8">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>377</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" t="s">
+        <v>369</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G131" t="s">
+        <v>378</v>
+      </c>
+      <c r="H131" s="8">
+        <v>0</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J131" s="8">
+        <v>35</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>376</v>
+      </c>
+      <c r="B132" s="8">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>377</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" t="s">
+        <v>369</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G132" t="s">
+        <v>378</v>
+      </c>
+      <c r="H132" s="8">
+        <v>0</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J132" s="8">
+        <v>35</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>376</v>
+      </c>
+      <c r="B133" s="10">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>377</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" t="s">
+        <v>369</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G133" t="s">
+        <v>378</v>
+      </c>
+      <c r="H133" s="10">
+        <v>0</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J133" s="10">
+        <v>36</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>376</v>
+      </c>
+      <c r="B134" s="10">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>377</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E134" t="s">
+        <v>369</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G134" t="s">
+        <v>378</v>
+      </c>
+      <c r="H134" s="10">
+        <v>1</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J134" s="10">
+        <v>36</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>376</v>
+      </c>
+      <c r="B135" s="10">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>377</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E135" t="s">
+        <v>369</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135" t="s">
+        <v>378</v>
+      </c>
+      <c r="H135" s="10">
+        <v>0</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J135" s="10">
+        <v>36</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>376</v>
+      </c>
+      <c r="B136" s="10">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>377</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E136" t="s">
+        <v>369</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G136" t="s">
+        <v>378</v>
+      </c>
+      <c r="H136" s="10">
+        <v>0</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J136" s="10">
+        <v>36</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>376</v>
+      </c>
+      <c r="B137" s="8">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>377</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E137" t="s">
+        <v>369</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G137" t="s">
+        <v>378</v>
+      </c>
+      <c r="H137" s="8">
+        <v>0</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J137" s="8">
+        <v>37</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>376</v>
+      </c>
+      <c r="B138" s="8">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>377</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" t="s">
+        <v>369</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G138" t="s">
+        <v>378</v>
+      </c>
+      <c r="H138" s="8">
+        <v>1</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J138" s="8">
+        <v>37</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>376</v>
+      </c>
+      <c r="B139" s="8">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>377</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E139" t="s">
+        <v>369</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G139" t="s">
+        <v>378</v>
+      </c>
+      <c r="H139" s="8">
+        <v>0</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J139" s="8">
+        <v>37</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>376</v>
+      </c>
+      <c r="B140" s="8">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>377</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E140" t="s">
+        <v>369</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G140" t="s">
+        <v>378</v>
+      </c>
+      <c r="H140" s="8">
+        <v>0</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J140" s="8">
+        <v>37</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>376</v>
+      </c>
+      <c r="B141" s="10">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>377</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E141" t="s">
+        <v>369</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G141" t="s">
+        <v>378</v>
+      </c>
+      <c r="H141" s="10">
+        <v>0</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J141" s="10">
+        <v>38</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>376</v>
+      </c>
+      <c r="B142" s="10">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>377</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E142" t="s">
+        <v>369</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G142" t="s">
+        <v>378</v>
+      </c>
+      <c r="H142" s="10">
+        <v>1</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J142" s="10">
+        <v>38</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>376</v>
+      </c>
+      <c r="B143" s="10">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>377</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E143" t="s">
+        <v>369</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G143" t="s">
+        <v>378</v>
+      </c>
+      <c r="H143" s="10">
+        <v>0</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J143" s="10">
+        <v>38</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>376</v>
+      </c>
+      <c r="B144" s="10">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>377</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E144" t="s">
+        <v>369</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G144" t="s">
+        <v>378</v>
+      </c>
+      <c r="H144" s="10">
+        <v>0</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J144" s="10">
+        <v>38</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>376</v>
+      </c>
+      <c r="B145" s="8">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>377</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E145" t="s">
+        <v>369</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G145" t="s">
+        <v>378</v>
+      </c>
+      <c r="H145" s="8">
+        <v>0</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J145" s="8">
+        <v>39</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>376</v>
+      </c>
+      <c r="B146" s="8">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>377</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E146" t="s">
+        <v>369</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G146" t="s">
+        <v>378</v>
+      </c>
+      <c r="H146" s="8">
+        <v>0</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J146" s="8">
+        <v>39</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>376</v>
+      </c>
+      <c r="B147" s="8">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>377</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E147" t="s">
+        <v>369</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G147" t="s">
+        <v>378</v>
+      </c>
+      <c r="H147" s="8">
+        <v>0</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J147" s="8">
+        <v>39</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>376</v>
+      </c>
+      <c r="B148" s="8">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>377</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E148" t="s">
+        <v>369</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G148" t="s">
+        <v>378</v>
+      </c>
+      <c r="H148" s="8">
+        <v>0</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J148" s="8">
+        <v>39</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>376</v>
+      </c>
+      <c r="B149" s="1">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>377</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E149" t="s">
+        <v>369</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G149" t="s">
+        <v>378</v>
+      </c>
+      <c r="H149" s="10">
+        <v>1</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J149" s="10">
+        <v>40</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:J149" xr:uid="{95539F80-7866-4A54-9451-DE680B2C0998}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J149">
+      <sortCondition ref="J1:J149"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC62EC79-2B91-4116-8231-B5637D9E4D6A}">
   <dimension ref="A1:A13"/>
   <sheetViews>
